--- a/example_schedules.xlsx
+++ b/example_schedules.xlsx
@@ -381,7 +381,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -407,7 +407,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45926.600694444445</v>
+        <v>45926.920138888891</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>

--- a/example_schedules.xlsx
+++ b/example_schedules.xlsx
@@ -381,7 +381,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -407,7 +407,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45926.927083333336</v>
+        <v>45927.052083333336</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>

--- a/example_schedules.xlsx
+++ b/example_schedules.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Asia/Kolkata</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>indreshkumar.exc8052@gmail.com</t>
+  </si>
+  <si>
+    <t>indresh.iitbhu@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -381,7 +384,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -407,15 +410,22 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45927.052083333336</v>
+        <v>45927.430555555555</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45927.427083333336</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1"/>
@@ -424,6 +434,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/example_schedules.xlsx
+++ b/example_schedules.xlsx
@@ -384,7 +384,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -410,7 +410,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45927.430555555555</v>
+        <v>45927.444444444445</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -421,7 +421,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>45927.427083333336</v>
+        <v>45927.446527777778</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
